--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Properties/QuotedAssetSets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Properties/QuotedAssetSets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410B5BB-7278-473A-90B6-0947818452D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C861ED9-4CD7-4966-879D-7EFFF8C16C5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="14955" windowHeight="12525" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUDUSDCurve" sheetId="23" r:id="rId1"/>
@@ -28,7 +28,15 @@
     <sheet name="NZDDiscountCurve" sheetId="17" r:id="rId13"/>
     <sheet name="Config" sheetId="10" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1888,7 +1896,7 @@
       </c>
       <c r="D3" s="52">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3016,7 +3024,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4107,7 +4115,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5195,7 +5203,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6286,7 +6294,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7524,7 +7532,7 @@
       </c>
       <c r="D3" s="52">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
@@ -9161,7 +9169,7 @@
       </c>
       <c r="D3" s="52">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -9901,7 +9909,7 @@
       </c>
       <c r="D3" s="52">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -10647,7 +10655,7 @@
       </c>
       <c r="D3" s="52">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="62"/>
@@ -10754,11 +10762,11 @@
       </c>
       <c r="K11" t="str">
         <f t="array" ref="K11:K57">_xll.HLV5r3.Financial.Cache.GetQASUniqueIdentifiers(K4:L4)</f>
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="M11" t="str">
         <f>SUBSTITUTE(K11,"Orion.V5r3.","")</f>
-        <v>QuotedAssetSet.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap</v>
+        <v>QuotedAssetSet.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -10772,11 +10780,11 @@
         <v>AUD-LIBOR-SENIOR</v>
       </c>
       <c r="K12" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ref="M12:M21" si="0">SUBSTITUTE(K12,"Orion.V5r3.","")</f>
-        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>QuotedAssetSet.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="N12" t="s">
         <v>103</v>
@@ -10792,11 +10800,11 @@
         <v>720</v>
       </c>
       <c r="K13" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>QuotedAssetSet.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" thickBot="1">
@@ -10809,11 +10817,11 @@
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>QuotedAssetSet.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
       <c r="N14" t="s">
         <v>104</v>
@@ -10823,22 +10831,22 @@
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="K15" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="K16" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
       <c r="N16" s="83" t="s">
         <v>114</v>
@@ -10866,11 +10874,11 @@
         <v>72</v>
       </c>
       <c r="K17" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10902,11 +10910,11 @@
         <v>73</v>
       </c>
       <c r="K18" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10938,11 +10946,11 @@
         <v>74</v>
       </c>
       <c r="K19" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.FxCurve.AUD-USD</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.FxCurve.AUD-USD</v>
+        <v>QuotedAssetSet.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10974,11 +10982,11 @@
         <v>75</v>
       </c>
       <c r="K20" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.FxCurve.AUD-USD</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>QuotedAssetSet.QR_LIVE.FxCurve.AUD-USD</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11010,11 +11018,11 @@
         <v>75</v>
       </c>
       <c r="K21" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>QuotedAssetSet.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>QuotedAssetSet.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11045,8 +11053,8 @@
       <c r="J22" t="s">
         <v>75</v>
       </c>
-      <c r="K22" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateBasisCurve.AUD-BBR-BBSW-6M</v>
+      <c r="K22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -11077,8 +11085,8 @@
       <c r="J23" t="s">
         <v>53</v>
       </c>
-      <c r="K23" t="str">
-        <v>Orion.V5r3.QuotedAssetSet.QR_LIVE.RateBasisCurve.AUD-BBR-BBSW-1M</v>
+      <c r="K23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -12180,7 +12188,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -14047,7 +14055,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15135,7 +15143,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16226,7 +16234,7 @@
       </c>
       <c r="D3" s="14">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
